--- a/StructureDefinition-profile-MeasureReport.xlsx
+++ b/StructureDefinition-profile-MeasureReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="487">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7277444-06:00</t>
+    <t>2026-02-09T22:05:43.1907151-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -413,33 +413,147 @@
     <t>MeasureReport.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MeasureReport.extension:dataUpdateType</t>
+  </si>
+  <si>
+    <t>dataUpdateType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.dataUpdateType|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.dataUpdateType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates whether the data submitted in a data-exchange report represents a snapshot or incremental update. A snapshot update replaces all previously submitted data for the receiver, whereas an incremental update represents only updated and/or changed data and should be applied as a differential update to the existing submitted data for the receiver.</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.dataUpdateType` is will have a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>MeasureReport.extension:scoring</t>
+  </si>
+  <si>
+    <t>scoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.scoring|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.scoring from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates how the calculation is performed for the measure, including proportion, ratio, continuous-variable, and cohort. The value set is extensible, allowing additional measure scoring types to be represented. It is expected to be the same as the scoring element on the referenced Measure.</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.scoring` is will have a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.extension:reportingVendor</t>
+  </si>
+  <si>
+    <t>reportingVendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.reportingVendor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.reportingVendor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MeasureReport.reportingVendor` is will have a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.extension:location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.location from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Location in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.location` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MeasureReport.location` is will have a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.extension:inputParameters</t>
+  </si>
+  <si>
+    <t>inputParameters</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.inputParameters from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Parameters in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.inputParameters` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MeasureReport.inputParameters` is will have a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.extension:supplementalData</t>
+  </si>
+  <si>
+    <t>supplementalData</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.supplementalData from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.supplementalData` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MeasureReport.supplementalData` is will have a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MeasureReport.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -447,6 +561,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -610,33 +727,26 @@
     <t>MeasureReport.reporter.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.reporter|0.0.1-snapshot-3}
-</t>
+    <t>MeasureReport.reporter.extension:reporter</t>
+  </si>
+  <si>
+    <t>reporter</t>
   </si>
   <si>
     <t>Cross-version extension for MeasureReport.reporter from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The individual or organization that is reporting the data.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.reporter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MeasureReport.reporter` is mapped to FHIR R4 element `MeasureReport.reporter`.</t>
   </si>
   <si>
     <t>MeasureReport.reporter.reference</t>
@@ -773,7 +883,39 @@
     <t>MeasureReport.group.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>MeasureReport.group.extension:linkId</t>
+  </si>
+  <si>
+    <t>linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The group from the Measure that corresponds to this group in the MeasureReport resource.</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.linkId` is will have a context of MeasureReport.group based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.group.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MeasureReport.group.subject` is will have a context of MeasureReport.group based on following the parent source element upwards and mapping to `MeasureReport`.</t>
   </si>
   <si>
     <t>MeasureReport.group.modifierExtension</t>
@@ -817,6 +959,51 @@
     <t>MeasureReport.group.population.extension</t>
   </si>
   <si>
+    <t>MeasureReport.group.population.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.population.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.population.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The population from the Measure that corresponds to this population in the MeasureReport resource.</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.population.linkId` is will have a context of MeasureReport.group.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.population.extension:subjectReport</t>
+  </si>
+  <si>
+    <t>subjectReport</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.population.subjectReport from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MeasureReport in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.group.population.subjectReport` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MeasureReport.group.population.subjectReport` is will have a context of MeasureReport.group.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.population.extension:subjects</t>
+  </si>
+  <si>
+    <t>subjects</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.population.subjects from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.group.population.subjects` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MeasureReport.group.population.subjects` is will have a context of MeasureReport.group.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
     <t>MeasureReport.group.population.modifierExtension</t>
   </si>
   <si>
@@ -880,6 +1067,12 @@
     <t>MeasureReport.group.measureScore.extension</t>
   </si>
   <si>
+    <t>MeasureReport.group.measureScore.extension:measureScore</t>
+  </si>
+  <si>
+    <t>measureScore</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.measureScore|0.0.1-snapshot-3}
 </t>
   </si>
@@ -887,6 +1080,9 @@
     <t>Cross-version extension for MeasureReport.group.measureScore[x] from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `MeasureReport.group.measureScore[x]` is mapped to FHIR R4 element `MeasureReport.group.measureScore`.</t>
+  </si>
+  <si>
     <t>MeasureReport.group.measureScore.value</t>
   </si>
   <si>
@@ -1015,6 +1211,22 @@
     <t>MeasureReport.group.stratifier.extension</t>
   </si>
   <si>
+    <t>MeasureReport.group.stratifier.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.stratifier.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The stratifier from the Measure that corresponds to this stratifier in the MeasureReport resource.</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.stratifier.linkId` is will have a context of MeasureReport.group.stratifier based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier.modifierExtension</t>
   </si>
   <si>
@@ -1042,6 +1254,12 @@
     <t>MeasureReport.group.stratifier.stratum.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier.stratum.modifierExtension</t>
   </si>
   <si>
@@ -1058,6 +1276,12 @@
   </si>
   <si>
     <t>MeasureReport.group.stratifier.stratum.value.extension</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.value.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.value|0.0.1-snapshot-3}
@@ -1067,6 +1291,9 @@
     <t>Cross-version extension for MeasureReport.group.stratifier.stratum.value[x] from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `MeasureReport.group.stratifier.stratum.value[x]` is mapped to FHIR R4 element `MeasureReport.group.stratifier.stratum.value`.</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier.stratum.value.coding</t>
   </si>
   <si>
@@ -1128,6 +1355,22 @@
     <t>MeasureReport.group.stratifier.stratum.component.extension</t>
   </si>
   <si>
+    <t>MeasureReport.group.stratifier.stratum.component.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.component.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.component.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The stratifier component from the Measure that corresponds to this stratifier component in the MeasureReport resource.</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.stratifier.stratum.component.linkId` is will have a context of MeasureReport.group.stratifier.stratum.component based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier.stratum.component.modifierExtension</t>
   </si>
   <si>
@@ -1153,6 +1396,9 @@
   </si>
   <si>
     <t>MeasureReport.group.stratifier.stratum.component.value.extension</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.component.value.extension:value</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.component.value|0.0.1-snapshot-3}
@@ -1162,6 +1408,9 @@
     <t>Cross-version extension for MeasureReport.group.stratifier.stratum.component.value[x] from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `MeasureReport.group.stratifier.stratum.component.value[x]` is mapped to FHIR R4 element `MeasureReport.group.stratifier.stratum.component.value`.</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier.stratum.component.value.coding</t>
   </si>
   <si>
@@ -1183,6 +1432,39 @@
     <t>MeasureReport.group.stratifier.stratum.population.extension</t>
   </si>
   <si>
+    <t>MeasureReport.group.stratifier.stratum.population.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.population.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.population.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.stratifier.stratum.population.linkId` is will have a context of MeasureReport.group.stratifier.stratum.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.population.extension:subjectReport</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.population.subjectReport from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.group.stratifier.stratum.population.subjectReport` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MeasureReport.group.stratifier.stratum.population.subjectReport` is will have a context of MeasureReport.group.stratifier.stratum.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.population.extension:subjects</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.population.subjects from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.group.stratifier.stratum.population.subjects` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MeasureReport.group.stratifier.stratum.population.subjects` is will have a context of MeasureReport.group.stratifier.stratum.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier.stratum.population.modifierExtension</t>
   </si>
   <si>
@@ -1214,6 +1496,9 @@
   </si>
   <si>
     <t>MeasureReport.group.stratifier.stratum.measureScore.extension</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.extension:measureScore</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.measureScore|0.0.1-snapshot-3}
@@ -1221,6 +1506,9 @@
   </si>
   <si>
     <t>Cross-version extension for MeasureReport.group.stratifier.stratum.measureScore[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.stratifier.stratum.measureScore[x]` is mapped to FHIR R4 element `MeasureReport.group.stratifier.stratum.measureScore`.</t>
   </si>
   <si>
     <t>MeasureReport.group.stratifier.stratum.measureScore.value</t>
@@ -1555,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL90"/>
+  <dimension ref="A1:AL106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1564,9 +1852,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.8359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="57.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.6640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1574,7 +1862,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.7421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2480,7 +2768,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2499,17 +2787,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2546,16 +2832,14 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>134</v>
@@ -2576,7 +2860,7 @@
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2584,18 +2868,20 @@
         <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -2607,20 +2893,18 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2668,7 +2952,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2677,7 +2961,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>135</v>
@@ -2686,17 +2970,19 @@
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2705,32 +2991,30 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2778,7 +3062,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2787,13 +3071,13 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>75</v>
@@ -2801,18 +3085,20 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>84</v>
@@ -2821,22 +3107,22 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2862,13 +3148,13 @@
         <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
@@ -2886,22 +3172,22 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>75</v>
@@ -2909,18 +3195,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>84</v>
@@ -2932,10 +3220,10 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>157</v>
@@ -2970,13 +3258,13 @@
         <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>75</v>
@@ -2994,22 +3282,22 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -3017,18 +3305,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>84</v>
@@ -3040,18 +3330,20 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -3100,22 +3392,22 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -3123,12 +3415,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3137,7 +3431,7 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3146,18 +3440,20 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -3206,22 +3502,22 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -3229,42 +3525,46 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3312,33 +3612,33 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3349,7 +3649,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3361,16 +3661,20 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3418,13 +3722,13 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
@@ -3452,7 +3756,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>84</v>
@@ -3461,21 +3765,23 @@
         <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3500,13 +3806,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -3524,10 +3830,10 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>84</v>
@@ -3536,21 +3842,21 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3561,7 +3867,7 @@
         <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3570,18 +3876,20 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -3606,46 +3914,46 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3653,10 +3961,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3664,7 +3972,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>84</v>
@@ -3676,16 +3984,16 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3736,22 +4044,22 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3759,10 +4067,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3785,17 +4093,15 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -3844,7 +4150,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3853,24 +4159,24 @@
         <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>205</v>
+        <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3893,17 +4199,15 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3928,31 +4232,31 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3967,18 +4271,18 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4001,17 +4305,15 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4060,7 +4362,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4075,10 +4377,10 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -4106,20 +4408,18 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N24" t="s" s="2">
         <v>223</v>
       </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4180,21 +4480,21 @@
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>127</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4202,10 +4502,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4214,16 +4514,16 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4262,31 +4562,31 @@
         <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
@@ -4300,9 +4600,11 @@
         <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4317,13 +4619,13 @@
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>231</v>
@@ -4358,13 +4660,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4382,19 +4684,19 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>75</v>
@@ -4405,10 +4707,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4419,7 +4721,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -4428,18 +4730,20 @@
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4488,16 +4792,16 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>96</v>
@@ -4506,7 +4810,7 @@
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28">
@@ -4534,18 +4838,20 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4570,13 +4876,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4594,7 +4900,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4606,32 +4912,32 @@
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>189</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -4640,19 +4946,19 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4702,69 +5008,67 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>189</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4812,19 +5116,19 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>75</v>
@@ -4835,10 +5139,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4846,7 +5150,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>84</v>
@@ -4861,13 +5165,13 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4918,10 +5222,10 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>84</v>
@@ -4941,10 +5245,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4955,27 +5259,29 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5000,13 +5306,13 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -5024,13 +5330,13 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
@@ -5047,10 +5353,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5061,7 +5367,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5073,13 +5379,13 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5130,44 +5436,44 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
@@ -5179,17 +5485,15 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5238,37 +5542,37 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>189</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5281,26 +5585,22 @@
         <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5336,19 +5636,17 @@
         <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5366,17 +5664,19 @@
         <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5394,18 +5694,20 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5430,13 +5732,13 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5454,19 +5756,19 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
@@ -5477,12 +5779,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5503,15 +5807,17 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5560,19 +5866,19 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -5583,42 +5889,46 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>267</v>
+        <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
@@ -5666,33 +5976,33 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5715,13 +6025,13 @@
         <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5772,7 +6082,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5795,10 +6105,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5809,7 +6119,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5821,13 +6131,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>186</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5878,33 +6188,33 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5912,10 +6222,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -5927,13 +6237,13 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5972,45 +6282,45 @@
         <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6021,7 +6331,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -6033,13 +6343,13 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6078,19 +6388,17 @@
         <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6113,12 +6421,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6136,23 +6446,21 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6200,35 +6508,37 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>285</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6237,36 +6547,34 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q44" t="s" s="2">
-        <v>290</v>
-      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6286,13 +6594,13 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -6310,35 +6618,37 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>294</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6356,21 +6666,21 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6418,66 +6728,68 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>300</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>304</v>
+        <v>175</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6526,33 +6838,33 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>306</v>
+        <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>307</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6575,20 +6887,16 @@
         <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>75</v>
       </c>
@@ -6612,13 +6920,13 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
@@ -6636,7 +6944,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6654,15 +6962,15 @@
         <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>314</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6673,7 +6981,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6685,13 +6993,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>237</v>
+        <v>321</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6742,13 +7050,13 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
@@ -6765,10 +7073,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6791,13 +7099,13 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>186</v>
+        <v>326</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6848,7 +7156,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -6860,32 +7168,32 @@
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -6894,20 +7202,18 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>130</v>
+        <v>329</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>131</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -6956,69 +7262,65 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>196</v>
+        <v>328</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7066,33 +7368,33 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>127</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7115,13 +7417,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>322</v>
+        <v>130</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
+        <v>131</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7160,19 +7462,19 @@
         <v>75</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>321</v>
+        <v>228</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7184,7 +7486,7 @@
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -7195,12 +7497,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>75</v>
       </c>
@@ -7209,7 +7513,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -7221,15 +7525,17 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>237</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>75</v>
@@ -7278,7 +7584,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7290,7 +7596,7 @@
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
@@ -7301,10 +7607,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7324,19 +7630,23 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>186</v>
+        <v>341</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>75</v>
       </c>
@@ -7384,7 +7694,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>188</v>
+        <v>345</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7396,59 +7706,61 @@
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>189</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="R55" t="s" s="2">
         <v>75</v>
       </c>
@@ -7468,13 +7780,13 @@
         <v>75</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -7492,68 +7804,66 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>196</v>
+        <v>354</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>189</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>139</v>
+        <v>359</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>75</v>
@@ -7602,33 +7912,33 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>247</v>
+        <v>360</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>127</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7648,19 +7958,21 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
       </c>
@@ -7708,7 +8020,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7717,7 +8029,7 @@
         <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>96</v>
@@ -7726,15 +8038,15 @@
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>75</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7754,19 +8066,23 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>186</v>
+        <v>370</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>75</v>
       </c>
@@ -7814,7 +8130,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>188</v>
+        <v>374</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -7826,21 +8142,21 @@
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>189</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7848,7 +8164,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -7863,13 +8179,13 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>191</v>
+        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>192</v>
+        <v>378</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7908,19 +8224,19 @@
         <v>75</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>196</v>
+        <v>376</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -7932,7 +8248,7 @@
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
@@ -7943,10 +8259,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7969,13 +8285,13 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>335</v>
+        <v>221</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8026,33 +8342,33 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8072,23 +8388,19 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>338</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>75</v>
       </c>
@@ -8124,19 +8436,17 @@
         <v>75</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>343</v>
+        <v>228</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8148,23 +8458,25 @@
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>344</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>75</v>
       </c>
@@ -8182,23 +8494,21 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>185</v>
+        <v>382</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
       </c>
@@ -8246,37 +8556,37 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>350</v>
+        <v>228</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>351</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8289,22 +8599,26 @@
         <v>75</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>75</v>
       </c>
@@ -8352,7 +8666,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>352</v>
+        <v>291</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8364,21 +8678,21 @@
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8389,7 +8703,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -8401,13 +8715,13 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>186</v>
+        <v>388</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>187</v>
+        <v>389</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8458,37 +8772,37 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>188</v>
+        <v>387</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8507,17 +8821,15 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>131</v>
+        <v>391</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -8566,7 +8878,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>196</v>
+        <v>390</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8578,57 +8890,53 @@
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
       </c>
@@ -8676,44 +8984,44 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>127</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
@@ -8725,15 +9033,17 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>75</v>
@@ -8782,65 +9092,69 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>358</v>
+        <v>228</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>230</v>
+        <v>129</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>362</v>
+        <v>289</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>75</v>
       </c>
@@ -8888,33 +9202,33 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8937,13 +9251,13 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>186</v>
+        <v>399</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>187</v>
+        <v>400</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8994,7 +9308,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>188</v>
+        <v>398</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9006,21 +9320,21 @@
         <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9028,10 +9342,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -9043,13 +9357,13 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9088,45 +9402,45 @@
         <v>75</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9134,10 +9448,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>75</v>
@@ -9149,13 +9463,13 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>366</v>
+        <v>129</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>367</v>
+        <v>130</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>363</v>
+        <v>131</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9194,19 +9508,19 @@
         <v>75</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9229,12 +9543,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>75</v>
       </c>
@@ -9243,7 +9559,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
@@ -9252,23 +9568,21 @@
         <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>338</v>
+        <v>405</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>75</v>
       </c>
@@ -9316,7 +9630,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>343</v>
+        <v>228</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9328,21 +9642,21 @@
         <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>344</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9353,7 +9667,7 @@
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
@@ -9365,19 +9679,19 @@
         <v>85</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>185</v>
+        <v>409</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>346</v>
+        <v>410</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>347</v>
+        <v>411</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>348</v>
+        <v>412</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>349</v>
+        <v>413</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -9426,13 +9740,13 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
@@ -9444,15 +9758,15 @@
         <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>351</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9463,7 +9777,7 @@
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>75</v>
@@ -9472,19 +9786,23 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
       </c>
@@ -9532,13 +9850,13 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>75</v>
@@ -9550,15 +9868,15 @@
         <v>75</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>75</v>
+        <v>422</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9569,7 +9887,7 @@
         <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>75</v>
@@ -9581,13 +9899,13 @@
         <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>186</v>
+        <v>424</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>187</v>
+        <v>425</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9638,44 +9956,44 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>188</v>
+        <v>423</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -9687,17 +10005,15 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>75</v>
@@ -9746,37 +10062,37 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>189</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -9789,26 +10105,22 @@
         <v>75</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L77" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="M77" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>75</v>
       </c>
@@ -9844,19 +10156,17 @@
         <v>75</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC77" s="2"/>
       <c r="AD77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -9874,17 +10184,19 @@
         <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>75</v>
       </c>
@@ -9905,15 +10217,17 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>230</v>
+        <v>429</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>258</v>
+        <v>430</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>75</v>
@@ -9938,13 +10252,13 @@
         <v>75</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>75</v>
@@ -9962,19 +10276,19 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>376</v>
+        <v>228</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>75</v>
@@ -9985,42 +10299,46 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>263</v>
+        <v>129</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>75</v>
       </c>
@@ -10068,33 +10386,33 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>377</v>
+        <v>291</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10102,7 +10420,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>84</v>
@@ -10117,13 +10435,13 @@
         <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>268</v>
+        <v>435</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10174,10 +10492,10 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>84</v>
@@ -10197,10 +10515,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10208,7 +10526,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>84</v>
@@ -10223,13 +10541,13 @@
         <v>75</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10280,10 +10598,10 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>84</v>
@@ -10303,10 +10621,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10329,13 +10647,13 @@
         <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10386,7 +10704,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -10404,15 +10722,15 @@
         <v>75</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>189</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10435,13 +10753,13 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="M83" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10480,19 +10798,19 @@
         <v>75</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -10515,18 +10833,20 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="D84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>84</v>
@@ -10541,15 +10861,17 @@
         <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>75</v>
@@ -10598,7 +10920,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -10621,10 +10943,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10635,7 +10957,7 @@
         <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>75</v>
@@ -10647,19 +10969,19 @@
         <v>85</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>279</v>
+        <v>409</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>281</v>
+        <v>411</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>282</v>
+        <v>412</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>283</v>
+        <v>413</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>75</v>
@@ -10708,13 +11030,13 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>284</v>
+        <v>414</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>75</v>
@@ -10726,15 +11048,15 @@
         <v>75</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>285</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10751,30 +11073,30 @@
         <v>75</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>287</v>
+        <v>417</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O86" t="s" s="2">
-        <v>289</v>
+        <v>420</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q86" t="s" s="2">
-        <v>290</v>
-      </c>
+      <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
         <v>75</v>
       </c>
@@ -10794,13 +11116,13 @@
         <v>75</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>75</v>
@@ -10818,7 +11140,7 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>293</v>
+        <v>421</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -10836,15 +11158,15 @@
         <v>75</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>294</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10855,7 +11177,7 @@
         <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -10864,21 +11186,19 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>296</v>
+        <v>449</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>297</v>
+        <v>450</v>
       </c>
       <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>75</v>
       </c>
@@ -10926,13 +11246,13 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>299</v>
+        <v>448</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>75</v>
@@ -10944,15 +11264,15 @@
         <v>75</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>300</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10972,21 +11292,19 @@
         <v>75</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>304</v>
-      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>75</v>
       </c>
@@ -11034,7 +11352,7 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -11043,24 +11361,24 @@
         <v>84</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>306</v>
+        <v>75</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>307</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11071,7 +11389,7 @@
         <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>75</v>
@@ -11080,23 +11398,19 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>75</v>
       </c>
@@ -11132,47 +11446,47 @@
         <v>75</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC89" s="2"/>
       <c r="AD89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>314</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="D90" t="s" s="2">
         <v>75</v>
       </c>
@@ -11181,7 +11495,7 @@
         <v>76</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>75</v>
@@ -11193,15 +11507,17 @@
         <v>75</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>395</v>
+        <v>455</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>75</v>
@@ -11250,7 +11566,7 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>393</v>
+        <v>228</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -11259,15 +11575,1743 @@
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AK90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL90" t="s" s="2">
+      <c r="AK94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q102" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL106" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MeasureReport.xlsx
+++ b/StructureDefinition-profile-MeasureReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="362">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1907151-06:00</t>
+    <t>2026-02-17T14:42:26.8413777-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,7 +453,7 @@
     <t>Indicates whether the data submitted in a data-exchange report represents a snapshot or incremental update. A snapshot update replaces all previously submitted data for the receiver, whereas an incremental update represents only updated and/or changed data and should be applied as a differential update to the existing submitted data for the receiver.</t>
   </si>
   <si>
-    <t>Element `MeasureReport.dataUpdateType` is will have a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+    <t>Element `MeasureReport.dataUpdateType` has a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -476,7 +476,7 @@
     <t>Indicates how the calculation is performed for the measure, including proportion, ratio, continuous-variable, and cohort. The value set is extensible, allowing additional measure scoring types to be represented. It is expected to be the same as the scoring element on the referenced Measure.</t>
   </si>
   <si>
-    <t>Element `MeasureReport.scoring` is will have a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+    <t>Element `MeasureReport.scoring` has a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
   </si>
   <si>
     <t>MeasureReport.extension:reportingVendor</t>
@@ -496,7 +496,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.reportingVendor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.reportingVendor` is will have a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+Element `MeasureReport.reportingVendor` has a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
   </si>
   <si>
     <t>MeasureReport.extension:location</t>
@@ -512,7 +512,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.location` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.location` is will have a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+Element `MeasureReport.location` has a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
   </si>
   <si>
     <t>MeasureReport.extension:inputParameters</t>
@@ -528,7 +528,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.inputParameters` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.inputParameters` is will have a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+Element `MeasureReport.inputParameters` has a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
   </si>
   <si>
     <t>MeasureReport.extension:supplementalData</t>
@@ -544,7 +544,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.supplementalData` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.supplementalData` is will have a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+Element `MeasureReport.supplementalData` has a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
   </si>
   <si>
     <t>MeasureReport.modifierExtension</t>
@@ -746,7 +746,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.reporter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.reporter` is mapped to FHIR R4 element `MeasureReport.reporter`.</t>
+Element `MeasureReport.reporter` has is mapped to FHIR R4 element `MeasureReport.reporter`, but has no comparisons.</t>
   </si>
   <si>
     <t>MeasureReport.reporter.reference</t>
@@ -883,39 +883,20 @@
     <t>MeasureReport.group.extension</t>
   </si>
   <si>
-    <t>MeasureReport.group.extension:linkId</t>
-  </si>
-  <si>
-    <t>linkId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.linkId|0.0.1-snapshot-3}
+    <t>MeasureReport.group.extension:group</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for MeasureReport.group.linkId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The group from the Measure that corresponds to this group in the MeasureReport resource.</t>
-  </si>
-  <si>
-    <t>Element `MeasureReport.group.linkId` is will have a context of MeasureReport.group based on following the parent source element upwards and mapping to `MeasureReport`.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Location,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.group.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.group.subject` is will have a context of MeasureReport.group based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+    <t>Cross-version extension for MeasureReport.group from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group` has is mapped to FHIR R4 element `MeasureReport.group`, but has no comparisons.</t>
   </si>
   <si>
     <t>MeasureReport.group.modifierExtension</t>
@@ -959,49 +940,10 @@
     <t>MeasureReport.group.population.extension</t>
   </si>
   <si>
-    <t>MeasureReport.group.population.extension:linkId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.population.linkId|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group.population.linkId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The population from the Measure that corresponds to this population in the MeasureReport resource.</t>
-  </si>
-  <si>
-    <t>Element `MeasureReport.group.population.linkId` is will have a context of MeasureReport.group.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.population.extension:subjectReport</t>
-  </si>
-  <si>
-    <t>subjectReport</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group.population.subjectReport from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/MeasureReport in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.group.population.subjectReport` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.group.population.subjectReport` is will have a context of MeasureReport.group.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.population.extension:subjects</t>
-  </si>
-  <si>
-    <t>subjects</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group.population.subjects from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.group.population.subjects` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.group.population.subjects` is will have a context of MeasureReport.group.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>MeasureReport.group.population.modifierExtension</t>
@@ -1061,141 +1003,6 @@
     <t>The measure score for this population group, calculated as appropriate for the measure type and scoring method, and based on the contents of the populations defined in the group.</t>
   </si>
   <si>
-    <t>MeasureReport.group.measureScore.id</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.measureScore.extension</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.measureScore.extension:measureScore</t>
-  </si>
-  <si>
-    <t>measureScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.measureScore|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group.measureScore[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MeasureReport.group.measureScore[x]` is mapped to FHIR R4 element `MeasureReport.group.measureScore`.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.measureScore.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.measureScore.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.measureScore.unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.measureScore.system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.measureScore.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
-  </si>
-  <si>
     <t>MeasureReport.group.stratifier</t>
   </si>
   <si>
@@ -1211,22 +1018,6 @@
     <t>MeasureReport.group.stratifier.extension</t>
   </si>
   <si>
-    <t>MeasureReport.group.stratifier.extension:linkId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.linkId|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group.stratifier.linkId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The stratifier from the Measure that corresponds to this stratifier in the MeasureReport resource.</t>
-  </si>
-  <si>
-    <t>Element `MeasureReport.group.stratifier.linkId` is will have a context of MeasureReport.group.stratifier based on following the parent source element upwards and mapping to `MeasureReport`.</t>
-  </si>
-  <si>
     <t>MeasureReport.group.stratifier.modifierExtension</t>
   </si>
   <si>
@@ -1254,12 +1045,6 @@
     <t>MeasureReport.group.stratifier.stratum.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>MeasureReport.group.stratifier.stratum.modifierExtension</t>
   </si>
   <si>
@@ -1272,74 +1057,6 @@
     <t>The value for this stratum, expressed as a CodeableConcept. When defining stratifiers on complex values, the value must be rendered such that the value for each stratum within the stratifier is unique.</t>
   </si>
   <si>
-    <t>MeasureReport.group.stratifier.stratum.value.id</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.value.extension</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.value.extension:value</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.value|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.value[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MeasureReport.group.stratifier.stratum.value[x]` is mapped to FHIR R4 element `MeasureReport.group.stratifier.stratum.value`.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.value.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.value.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
     <t>MeasureReport.group.stratifier.stratum.component</t>
   </si>
   <si>
@@ -1355,22 +1072,6 @@
     <t>MeasureReport.group.stratifier.stratum.component.extension</t>
   </si>
   <si>
-    <t>MeasureReport.group.stratifier.stratum.component.extension:linkId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.component.linkId|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.component.linkId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The stratifier component from the Measure that corresponds to this stratifier component in the MeasureReport resource.</t>
-  </si>
-  <si>
-    <t>Element `MeasureReport.group.stratifier.stratum.component.linkId` is will have a context of MeasureReport.group.stratifier.stratum.component based on following the parent source element upwards and mapping to `MeasureReport`.</t>
-  </si>
-  <si>
     <t>MeasureReport.group.stratifier.stratum.component.modifierExtension</t>
   </si>
   <si>
@@ -1392,31 +1093,6 @@
     <t>The stratum component value.</t>
   </si>
   <si>
-    <t>MeasureReport.group.stratifier.stratum.component.value.id</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.component.value.extension</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.component.value.extension:value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.component.value|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.component.value[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MeasureReport.group.stratifier.stratum.component.value[x]` is mapped to FHIR R4 element `MeasureReport.group.stratifier.stratum.component.value`.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.component.value.coding</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.component.value.text</t>
-  </si>
-  <si>
     <t>MeasureReport.group.stratifier.stratum.population</t>
   </si>
   <si>
@@ -1432,39 +1108,6 @@
     <t>MeasureReport.group.stratifier.stratum.population.extension</t>
   </si>
   <si>
-    <t>MeasureReport.group.stratifier.stratum.population.extension:linkId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.population.linkId|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.population.linkId from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MeasureReport.group.stratifier.stratum.population.linkId` is will have a context of MeasureReport.group.stratifier.stratum.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.population.extension:subjectReport</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.population.subjectReport from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.group.stratifier.stratum.population.subjectReport` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.group.stratifier.stratum.population.subjectReport` is will have a context of MeasureReport.group.stratifier.stratum.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.population.extension:subjects</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.population.subjects from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.group.stratifier.stratum.population.subjects` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.group.stratifier.stratum.population.subjects` is will have a context of MeasureReport.group.stratifier.stratum.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
-  </si>
-  <si>
     <t>MeasureReport.group.stratifier.stratum.population.modifierExtension</t>
   </si>
   <si>
@@ -1490,40 +1133,6 @@
   </si>
   <si>
     <t>The measure score for this stratum, calculated as appropriate for the measure type and scoring method, and based on only the members of this stratum.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.measureScore.id</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.measureScore.extension</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.measureScore.extension:measureScore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.measureScore|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.measureScore[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MeasureReport.group.stratifier.stratum.measureScore[x]` is mapped to FHIR R4 element `MeasureReport.group.stratifier.stratum.measureScore`.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.measureScore.value</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.measureScore.comparator</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.measureScore.unit</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.measureScore.system</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.stratifier.stratum.measureScore.code</t>
   </si>
   <si>
     <t>MeasureReport.evaluatedResource</t>
@@ -1843,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL106"/>
+  <dimension ref="A1:AL71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1852,7 +1461,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.8359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="57.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.6640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1862,7 +1471,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.7421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1888,7 +1497,7 @@
     <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="60.1015625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="20.3359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5685,7 +5294,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5703,10 +5312,10 @@
         <v>279</v>
       </c>
       <c r="M36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5779,46 +5388,46 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5866,7 +5475,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5884,51 +5493,47 @@
         <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>288</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
@@ -5976,33 +5581,33 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6013,7 +5618,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -6022,16 +5627,16 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6082,13 +5687,13 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
@@ -6105,10 +5710,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6119,7 +5724,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -6131,13 +5736,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6188,44 +5793,44 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>295</v>
+        <v>224</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -6237,15 +5842,17 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6294,19 +5901,19 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
@@ -6317,14 +5924,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6337,22 +5944,26 @@
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>130</v>
+        <v>283</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6388,17 +5999,19 @@
         <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC42" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6416,19 +6029,17 @@
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6446,20 +6057,18 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6484,13 +6093,13 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6508,19 +6117,19 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
@@ -6531,14 +6140,12 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6547,7 +6154,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6559,17 +6166,15 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6618,19 +6223,19 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>228</v>
+        <v>302</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
@@ -6641,14 +6246,12 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6669,17 +6272,15 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>151</v>
+        <v>307</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6728,19 +6329,19 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>75</v>
@@ -6751,46 +6352,42 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>288</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>129</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6838,33 +6435,33 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6875,7 +6472,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -6884,16 +6481,16 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6920,13 +6517,13 @@
         <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>318</v>
+        <v>75</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>319</v>
+        <v>75</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>75</v>
@@ -6944,13 +6541,13 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>75</v>
@@ -6967,10 +6564,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6993,13 +6590,13 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7050,7 +6647,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7062,32 +6659,32 @@
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -7099,15 +6696,17 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>325</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
@@ -7156,65 +6755,69 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>329</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
       </c>
@@ -7262,33 +6865,33 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7299,7 +6902,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
@@ -7311,13 +6914,13 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>223</v>
+        <v>322</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7368,33 +6971,33 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7417,13 +7020,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>129</v>
+        <v>271</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>131</v>
+        <v>325</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7462,19 +7065,19 @@
         <v>75</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>228</v>
+        <v>323</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7486,7 +7089,7 @@
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
@@ -7497,14 +7100,12 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>75</v>
       </c>
@@ -7525,17 +7126,15 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>75</v>
@@ -7584,44 +7183,44 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -7630,23 +7229,21 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
       </c>
@@ -7694,44 +7291,44 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>345</v>
+        <v>228</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>346</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -7743,24 +7340,24 @@
         <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>351</v>
-      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>75</v>
       </c>
@@ -7780,13 +7377,13 @@
         <v>75</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>352</v>
+        <v>75</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -7804,33 +7401,33 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>355</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7850,21 +7447,19 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>75</v>
       </c>
@@ -7912,7 +7507,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7930,15 +7525,15 @@
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>361</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7949,7 +7544,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -7958,21 +7553,19 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>363</v>
+        <v>333</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>364</v>
+        <v>334</v>
       </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
       </c>
@@ -8020,16 +7613,16 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>96</v>
@@ -8038,15 +7631,15 @@
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>368</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8066,23 +7659,19 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
+        <v>222</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
       </c>
@@ -8130,7 +7719,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>374</v>
+        <v>224</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8142,25 +7731,25 @@
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>375</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8179,15 +7768,17 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>294</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>75</v>
@@ -8236,7 +7827,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>376</v>
+        <v>228</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8248,53 +7839,57 @@
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
       </c>
@@ -8342,33 +7937,33 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>225</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8376,10 +7971,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8391,13 +7986,13 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>130</v>
+        <v>339</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>131</v>
+        <v>340</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8436,29 +8031,31 @@
         <v>75</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC61" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
@@ -8469,20 +8066,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>84</v>
@@ -8497,17 +8092,15 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>382</v>
+        <v>264</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8556,19 +8149,19 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
@@ -8579,14 +8172,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>288</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8599,26 +8192,22 @@
         <v>75</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>129</v>
+        <v>271</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
       </c>
@@ -8666,7 +8255,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8678,21 +8267,21 @@
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8703,7 +8292,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -8715,13 +8304,13 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>388</v>
+        <v>222</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>389</v>
+        <v>223</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8772,37 +8361,37 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>387</v>
+        <v>224</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -8821,15 +8410,17 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>391</v>
+        <v>294</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -8878,7 +8469,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>390</v>
+        <v>228</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8890,53 +8481,57 @@
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>75</v>
       </c>
@@ -8984,44 +8579,44 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>225</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
@@ -9033,17 +8628,15 @@
         <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>395</v>
+        <v>298</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>75</v>
@@ -9068,13 +8661,13 @@
         <v>75</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>75</v>
@@ -9092,69 +8685,65 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>228</v>
+        <v>350</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>288</v>
+        <v>75</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>75</v>
       </c>
@@ -9202,33 +8791,33 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9251,13 +8840,13 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>399</v>
+        <v>308</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9308,7 +8897,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9331,10 +8920,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9357,13 +8946,13 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>221</v>
+        <v>311</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>223</v>
+        <v>357</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9414,7 +9003,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>224</v>
+        <v>355</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9426,21 +9015,21 @@
         <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9463,13 +9052,13 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>129</v>
+        <v>359</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9508,19 +9097,19 @@
         <v>75</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>228</v>
+        <v>358</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9532,3786 +9121,12 @@
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="D72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC77" s="2"/>
-      <c r="AD77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="D78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC89" s="2"/>
-      <c r="AD89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="D90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="D91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="D92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O92" s="2"/>
-      <c r="P92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q92" s="2"/>
-      <c r="R92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="D100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="P101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="P102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q102" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="P103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL106" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MeasureReport.xlsx
+++ b/StructureDefinition-profile-MeasureReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="373">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8413777-06:00</t>
+    <t>2026-02-20T11:59:20.8666292-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MeasureReport|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MeasureReport</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>dataUpdateType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.dataUpdateType|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.dataUpdateType}
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>scoring</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.scoring|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.scoring}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>reportingVendor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -673,39 +673,7 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>MeasureReport.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the report was generated</t>
-  </si>
-  <si>
-    <t>The date this measure report was generated.</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>MeasureReport.reporter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Location|4.0.1|Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who is reporting the data</t>
-  </si>
-  <si>
-    <t>The individual, location, or organization that is reporting the data.</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>MeasureReport.reporter.id</t>
+    <t>MeasureReport.subject.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -724,7 +692,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MeasureReport.reporter.extension</t>
+    <t>MeasureReport.subject.extension</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -733,23 +701,23 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>MeasureReport.reporter.extension:reporter</t>
-  </si>
-  <si>
-    <t>reporter</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.reporter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.reporter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.reporter` has is mapped to FHIR R4 element `MeasureReport.reporter`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MeasureReport.reporter.reference</t>
+    <t>MeasureReport.subject.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MeasureReport.subject` has is mapped to FHIR R4 element `MeasureReport.subject`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>MeasureReport.subject.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -768,7 +736,7 @@
 </t>
   </si>
   <si>
-    <t>MeasureReport.reporter.type</t>
+    <t>MeasureReport.subject.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -793,7 +761,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>MeasureReport.reporter.identifier</t>
+    <t>MeasureReport.subject.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -814,19 +782,85 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>MeasureReport.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>MeasureReport.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the report was generated</t>
+  </si>
+  <si>
+    <t>The date this measure report was generated.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Location|4.0.1|Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who is reporting the data</t>
+  </si>
+  <si>
+    <t>The individual, location, or organization that is reporting the data.</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter.extension</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter.extension:reporter</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.reporter from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.reporter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MeasureReport.reporter` has is mapped to FHIR R4 element `MeasureReport.reporter`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter.reference</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter.type</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter.identifier</t>
+  </si>
+  <si>
     <t>MeasureReport.reporter.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>MeasureReport.period</t>
@@ -889,7 +923,7 @@
     <t>group</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group}
 </t>
   </si>
   <si>
@@ -1452,7 +1486,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL71"/>
+  <dimension ref="A1:AL78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3805,7 +3839,7 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>211</v>
@@ -3865,7 +3899,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3877,21 +3911,21 @@
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>214</v>
+        <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3902,7 +3936,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -3911,16 +3945,16 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3959,34 +3993,34 @@
         <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -3994,12 +4028,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>75</v>
       </c>
@@ -4020,15 +4056,17 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4077,33 +4115,33 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4114,7 +4152,7 @@
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4123,18 +4161,20 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4171,16 +4211,16 @@
         <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>228</v>
@@ -4189,31 +4229,29 @@
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C26" t="s" s="2">
         <v>230</v>
       </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4231,10 +4269,10 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>231</v>
@@ -4269,13 +4307,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4293,33 +4331,33 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4342,16 +4380,16 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4401,7 +4439,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4410,7 +4448,7 @@
         <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>96</v>
@@ -4419,15 +4457,15 @@
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>127</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4450,16 +4488,16 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4485,13 +4523,13 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4509,7 +4547,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4532,10 +4570,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4558,17 +4596,15 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4617,7 +4653,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4632,10 +4668,10 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -4666,17 +4702,15 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N30" t="s" s="2">
         <v>257</v>
       </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -4725,7 +4759,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4740,10 +4774,10 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -4759,7 +4793,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>84</v>
@@ -4771,16 +4805,16 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4831,10 +4865,10 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>84</v>
@@ -4843,21 +4877,21 @@
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4868,29 +4902,27 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -4915,43 +4947,43 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
@@ -4962,12 +4994,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="D33" t="s" s="2">
         <v>75</v>
       </c>
@@ -4976,7 +5010,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -4988,15 +5022,17 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>271</v>
+        <v>151</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5045,7 +5081,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>270</v>
+        <v>218</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5054,10 +5090,10 @@
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>75</v>
@@ -5068,10 +5104,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5091,18 +5127,20 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5151,7 +5189,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5160,24 +5198,24 @@
         <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>225</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5188,7 +5226,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5197,18 +5235,20 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5233,59 +5273,59 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5294,7 +5334,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5303,19 +5343,19 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5365,69 +5405,67 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>75</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5475,19 +5513,19 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -5498,10 +5536,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5509,7 +5547,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>84</v>
@@ -5524,13 +5562,13 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5581,10 +5619,10 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>84</v>
@@ -5604,10 +5642,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5618,27 +5656,29 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -5663,13 +5703,13 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -5687,13 +5727,13 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
@@ -5710,10 +5750,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5724,7 +5764,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5736,13 +5776,13 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>222</v>
+        <v>283</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5793,44 +5833,44 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>224</v>
+        <v>281</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
@@ -5842,17 +5882,15 @@
         <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -5901,37 +5939,37 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5944,26 +5982,22 @@
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -5999,19 +6033,17 @@
         <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6029,17 +6061,19 @@
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6048,7 +6082,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6057,18 +6091,20 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6093,13 +6129,13 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6117,19 +6153,19 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
@@ -6140,42 +6176,46 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>303</v>
+        <v>129</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6223,33 +6263,33 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6269,16 +6309,16 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6329,7 +6369,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6352,10 +6392,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6366,7 +6406,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6375,16 +6415,16 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6435,13 +6475,13 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
@@ -6458,10 +6498,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6472,7 +6512,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -6484,13 +6524,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>212</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
+        <v>213</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6541,44 +6581,44 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6590,15 +6630,17 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -6647,37 +6689,37 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6690,10 +6732,10 @@
         <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>129</v>
@@ -6707,7 +6749,9 @@
       <c r="N49" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
@@ -6755,7 +6799,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -6773,51 +6817,47 @@
         <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>225</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
       </c>
@@ -6841,13 +6881,13 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -6865,33 +6905,33 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6902,7 +6942,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
@@ -6914,13 +6954,13 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6971,13 +7011,13 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
@@ -6994,10 +7034,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7008,7 +7048,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -7020,13 +7060,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7077,13 +7117,13 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>75</v>
@@ -7100,10 +7140,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7123,16 +7163,16 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>221</v>
+        <v>322</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>222</v>
+        <v>323</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>223</v>
+        <v>324</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7183,7 +7223,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7195,25 +7235,25 @@
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7232,17 +7272,15 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7291,7 +7329,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>228</v>
+        <v>325</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7303,13 +7341,13 @@
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
@@ -7321,39 +7359,35 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
       </c>
@@ -7401,25 +7435,25 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>285</v>
+        <v>214</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>127</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56">
@@ -7431,14 +7465,14 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -7450,15 +7484,17 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>75</v>
@@ -7507,37 +7543,37 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>329</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7550,22 +7586,26 @@
         <v>75</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>75</v>
       </c>
@@ -7613,7 +7653,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7625,21 +7665,21 @@
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7650,7 +7690,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
@@ -7662,13 +7702,13 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>222</v>
+        <v>332</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7719,37 +7759,37 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>224</v>
+        <v>331</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -7768,17 +7808,15 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>75</v>
@@ -7827,7 +7865,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -7839,13 +7877,13 @@
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
@@ -7857,39 +7895,35 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>75</v>
       </c>
@@ -7937,25 +7971,25 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>285</v>
+        <v>214</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>127</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
@@ -7967,14 +8001,14 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -7986,15 +8020,17 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8043,65 +8079,69 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>75</v>
       </c>
@@ -8149,33 +8189,33 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8186,7 +8226,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -8198,13 +8238,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8255,13 +8295,13 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>75</v>
@@ -8278,10 +8318,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8292,7 +8332,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -8304,13 +8344,13 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>222</v>
+        <v>344</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>223</v>
+        <v>345</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8361,44 +8401,44 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>75</v>
@@ -8410,17 +8450,15 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>294</v>
+        <v>212</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -8469,37 +8507,37 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -8512,26 +8550,24 @@
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="O66" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
       </c>
@@ -8579,7 +8615,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -8597,47 +8633,51 @@
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>127</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>75</v>
       </c>
@@ -8661,13 +8701,13 @@
         <v>75</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>75</v>
@@ -8685,33 +8725,33 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8719,7 +8759,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>84</v>
@@ -8734,13 +8774,13 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8791,10 +8831,10 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>84</v>
@@ -8814,10 +8854,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8825,7 +8865,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>84</v>
@@ -8840,10 +8880,10 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>354</v>
@@ -8897,10 +8937,10 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>84</v>
@@ -8934,7 +8974,7 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -8946,7 +8986,7 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>356</v>
@@ -9009,7 +9049,7 @@
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>75</v>
@@ -9040,7 +9080,7 @@
         <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>75</v>
@@ -9052,13 +9092,13 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>359</v>
+        <v>211</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>360</v>
+        <v>212</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>361</v>
+        <v>213</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9109,24 +9149,772 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>358</v>
+        <v>214</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G72" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AI71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
+      <c r="H72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AK71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AK74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-MeasureReport.xlsx
+++ b/StructureDefinition-profile-MeasureReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="415">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8666292-06:00</t>
+    <t>2026-02-21T13:36:54.2720036-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MeasureReport</t>
+    <t>http://hl7.org/fhir/StructureDefinition/MeasureReport|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>dataUpdateType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.dataUpdateType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.dataUpdateType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>scoring</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.scoring}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.scoring|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -477,74 +477,6 @@
   </si>
   <si>
     <t>Element `MeasureReport.scoring` has a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
-  </si>
-  <si>
-    <t>MeasureReport.extension:reportingVendor</t>
-  </si>
-  <si>
-    <t>reportingVendor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.reportingVendor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.reportingVendor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.reportingVendor` has a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
-  </si>
-  <si>
-    <t>MeasureReport.extension:location</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.location from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Location in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.location` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.location` has a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
-  </si>
-  <si>
-    <t>MeasureReport.extension:inputParameters</t>
-  </si>
-  <si>
-    <t>inputParameters</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.inputParameters from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Parameters in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.inputParameters` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.inputParameters` has a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
-  </si>
-  <si>
-    <t>MeasureReport.extension:supplementalData</t>
-  </si>
-  <si>
-    <t>supplementalData</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.supplementalData from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.supplementalData` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.supplementalData` has a context of MeasureReport based on following the parent source element upwards and mapping to `MeasureReport`.</t>
   </si>
   <si>
     <t>MeasureReport.modifierExtension</t>
@@ -673,7 +605,87 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>MeasureReport.subject.id</t>
+    <t>MeasureReport.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the report was generated</t>
+  </si>
+  <si>
+    <t>The date this measure report was generated.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>MeasureReport.reporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Location|4.0.1|Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who is reporting the data</t>
+  </si>
+  <si>
+    <t>The individual, location, or organization that is reporting the data.</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>MeasureReport.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>What period the report covers</t>
+  </si>
+  <si>
+    <t>The reporting period for which the report was calculated.</t>
+  </si>
+  <si>
+    <t>MeasureReport.improvementNotation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>increase | decrease</t>
+  </si>
+  <si>
+    <t>Whether improvement in the measure is noted by an increase or decrease in the measure score.</t>
+  </si>
+  <si>
+    <t>This element is typically defined by the measure, but reproduced here to ensure the measure score can be interpreted. The element is labeled as a modifier because it changes the interpretation of the reported measure score.</t>
+  </si>
+  <si>
+    <t>Observation values that indicate what change in a measurement value or score is indicative of an improvement in the measured item or scored issue.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/measure-improvement-notation|4.0.1</t>
+  </si>
+  <si>
+    <t>MeasureReport.group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Measure results for each group</t>
+  </si>
+  <si>
+    <t>The results of the calculation, one for each population group in the measure.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -692,245 +704,29 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>MeasureReport.subject.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>MeasureReport.group.extension</t>
   </si>
   <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>MeasureReport.subject.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Organization in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.subject` has is mapped to FHIR R4 element `MeasureReport.subject`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MeasureReport.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
+    <t>MeasureReport.group.extension:linkId</t>
+  </si>
+  <si>
+    <t>linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.linkId|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>MeasureReport.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MeasureReport.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>MeasureReport.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>MeasureReport.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the report was generated</t>
-  </si>
-  <si>
-    <t>The date this measure report was generated.</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>MeasureReport.reporter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Location|4.0.1|Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who is reporting the data</t>
-  </si>
-  <si>
-    <t>The individual, location, or organization that is reporting the data.</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>MeasureReport.reporter.id</t>
-  </si>
-  <si>
-    <t>MeasureReport.reporter.extension</t>
-  </si>
-  <si>
-    <t>MeasureReport.reporter.extension:reporter</t>
-  </si>
-  <si>
-    <t>reporter</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.reporter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MeasureReport.reporter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MeasureReport.reporter` has is mapped to FHIR R4 element `MeasureReport.reporter`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>MeasureReport.reporter.reference</t>
-  </si>
-  <si>
-    <t>MeasureReport.reporter.type</t>
-  </si>
-  <si>
-    <t>MeasureReport.reporter.identifier</t>
-  </si>
-  <si>
-    <t>MeasureReport.reporter.display</t>
-  </si>
-  <si>
-    <t>MeasureReport.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>What period the report covers</t>
-  </si>
-  <si>
-    <t>The reporting period for which the report was calculated.</t>
-  </si>
-  <si>
-    <t>MeasureReport.improvementNotation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>increase | decrease</t>
-  </si>
-  <si>
-    <t>Whether improvement in the measure is noted by an increase or decrease in the measure score.</t>
-  </si>
-  <si>
-    <t>This element is typically defined by the measure, but reproduced here to ensure the measure score can be interpreted. The element is labeled as a modifier because it changes the interpretation of the reported measure score.</t>
-  </si>
-  <si>
-    <t>Observation values that indicate what change in a measurement value or score is indicative of an improvement in the measured item or scored issue.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/measure-improvement-notation|4.0.1</t>
-  </si>
-  <si>
-    <t>MeasureReport.group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Measure results for each group</t>
-  </si>
-  <si>
-    <t>The results of the calculation, one for each population group in the measure.</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.id</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.extension</t>
-  </si>
-  <si>
-    <t>MeasureReport.group.extension:group</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for MeasureReport.group from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `MeasureReport.group` has is mapped to FHIR R4 element `MeasureReport.group`, but has no comparisons.</t>
+    <t>Cross-version extension for MeasureReport.group.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The group from the Measure that corresponds to this group in the MeasureReport resource.</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.linkId` has a context of MeasureReport.group based on following the parent source element upwards and mapping to `MeasureReport`.</t>
   </si>
   <si>
     <t>MeasureReport.group.modifierExtension</t>
@@ -974,10 +770,20 @@
     <t>MeasureReport.group.population.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>MeasureReport.group.population.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.population.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.population.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The population from the Measure that corresponds to this population in the MeasureReport resource.</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.population.linkId` has a context of MeasureReport.group.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
   </si>
   <si>
     <t>MeasureReport.group.population.modifierExtension</t>
@@ -990,6 +796,9 @@
   </si>
   <si>
     <t>The type of the population.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>The type of population (e.g. initial, numerator, denominator, etc.).</t>
@@ -1037,6 +846,144 @@
     <t>The measure score for this population group, calculated as appropriate for the measure type and scoring method, and based on the contents of the populations defined in the group.</t>
   </si>
   <si>
+    <t>MeasureReport.group.measureScore.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.extension:measureScore</t>
+  </si>
+  <si>
+    <t>measureScore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.measureScore|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.measureScore[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.measureScore[x]` is mapped to FHIR R4 element `MeasureReport.group.measureScore` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.measureScore.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier</t>
   </si>
   <si>
@@ -1052,6 +999,22 @@
     <t>MeasureReport.group.stratifier.extension</t>
   </si>
   <si>
+    <t>MeasureReport.group.stratifier.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.stratifier.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The stratifier from the Measure that corresponds to this stratifier in the MeasureReport resource.</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.stratifier.linkId` has a context of MeasureReport.group.stratifier based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier.modifierExtension</t>
   </si>
   <si>
@@ -1079,6 +1042,12 @@
     <t>MeasureReport.group.stratifier.stratum.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier.stratum.modifierExtension</t>
   </si>
   <si>
@@ -1091,6 +1060,74 @@
     <t>The value for this stratum, expressed as a CodeableConcept. When defining stratifiers on complex values, the value must be rendered such that the value for each stratum within the stratifier is unique.</t>
   </si>
   <si>
+    <t>MeasureReport.group.stratifier.stratum.value.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.value.extension</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.value.extension:value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.value|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.value[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.stratifier.stratum.value[x]` is mapped to FHIR R4 element `MeasureReport.group.stratifier.stratum.value` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.value.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.value.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier.stratum.component</t>
   </si>
   <si>
@@ -1106,6 +1143,22 @@
     <t>MeasureReport.group.stratifier.stratum.component.extension</t>
   </si>
   <si>
+    <t>MeasureReport.group.stratifier.stratum.component.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.component.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.component.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The stratifier component from the Measure that corresponds to this stratifier component in the MeasureReport resource.</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.stratifier.stratum.component.linkId` has a context of MeasureReport.group.stratifier.stratum.component based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier.stratum.component.modifierExtension</t>
   </si>
   <si>
@@ -1127,6 +1180,31 @@
     <t>The stratum component value.</t>
   </si>
   <si>
+    <t>MeasureReport.group.stratifier.stratum.component.value.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.component.value.extension</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.component.value.extension:value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.component.value|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.component.value[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.stratifier.stratum.component.value[x]` is mapped to FHIR R4 element `MeasureReport.group.stratifier.stratum.component.value` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.component.value.coding</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.component.value.text</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier.stratum.population</t>
   </si>
   <si>
@@ -1142,6 +1220,19 @@
     <t>MeasureReport.group.stratifier.stratum.population.extension</t>
   </si>
   <si>
+    <t>MeasureReport.group.stratifier.stratum.population.extension:linkId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.population.linkId|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.population.linkId from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.stratifier.stratum.population.linkId` has a context of MeasureReport.group.stratifier.stratum.population based on following the parent source element upwards and mapping to `MeasureReport`.</t>
+  </si>
+  <si>
     <t>MeasureReport.group.stratifier.stratum.population.modifierExtension</t>
   </si>
   <si>
@@ -1167,6 +1258,40 @@
   </si>
   <si>
     <t>The measure score for this stratum, calculated as appropriate for the measure type and scoring method, and based on only the members of this stratum.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.id</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.extension</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.extension:measureScore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-MeasureReport.group.stratifier.stratum.measureScore|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for MeasureReport.group.stratifier.stratum.measureScore[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `MeasureReport.group.stratifier.stratum.measureScore[x]` is mapped to FHIR R4 element `MeasureReport.group.stratifier.stratum.measureScore` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.value</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.comparator</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.unit</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.system</t>
+  </si>
+  <si>
+    <t>MeasureReport.group.stratifier.stratum.measureScore.code</t>
   </si>
   <si>
     <t>MeasureReport.evaluatedResource</t>
@@ -1486,7 +1611,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL78"/>
+  <dimension ref="A1:AL90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1495,9 +1620,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.8359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="57.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.6640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.31640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1505,7 +1630,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.7421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1531,7 +1656,7 @@
     <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="20.3359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="60.1015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2731,43 +2856,43 @@
         <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2815,7 +2940,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2833,19 +2958,17 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s" s="2">
         <v>156</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2854,7 +2977,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2863,21 +2986,23 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2925,7 +3050,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2937,10 +3062,10 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>75</v>
@@ -2948,20 +3073,18 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>84</v>
@@ -2970,22 +3093,22 @@
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3011,13 +3134,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3035,22 +3158,22 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -3058,23 +3181,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3083,19 +3204,19 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3121,13 +3242,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3145,22 +3266,22 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -3168,46 +3289,42 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3255,33 +3372,33 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3292,7 +3409,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3304,20 +3421,16 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3365,13 +3478,13 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
@@ -3380,7 +3493,7 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -3388,10 +3501,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3399,7 +3512,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>84</v>
@@ -3408,23 +3521,21 @@
         <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3449,34 +3560,34 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>84</v>
@@ -3488,7 +3599,7 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3496,10 +3607,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3507,7 +3618,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>84</v>
@@ -3522,17 +3633,15 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -3557,13 +3666,13 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -3581,22 +3690,22 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3604,10 +3713,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3630,13 +3739,13 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3687,7 +3796,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>84</v>
@@ -3702,7 +3811,7 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3710,10 +3819,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3730,21 +3839,23 @@
         <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -3769,13 +3880,13 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -3793,7 +3904,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3808,7 +3919,7 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -3830,7 +3941,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -3899,33 +4010,33 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3936,7 +4047,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
@@ -3948,13 +4059,13 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3993,16 +4104,16 @@
         <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>218</v>
@@ -4011,31 +4122,29 @@
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C24" t="s" s="2">
         <v>220</v>
       </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>75</v>
       </c>
@@ -4044,7 +4153,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4056,17 +4165,15 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4103,19 +4210,17 @@
         <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4138,12 +4243,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4161,10 +4268,10 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>225</v>
@@ -4223,67 +4330,69 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="N26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4307,13 +4416,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4331,19 +4440,19 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>75</v>
@@ -4354,10 +4463,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4380,17 +4489,15 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4439,7 +4546,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4457,15 +4564,15 @@
         <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>243</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4476,7 +4583,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4485,20 +4592,18 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4547,13 +4652,13 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
@@ -4565,15 +4670,15 @@
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4593,16 +4698,16 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4653,7 +4758,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4665,21 +4770,21 @@
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4690,7 +4795,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -4699,16 +4804,16 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4747,34 +4852,32 @@
         <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4782,12 +4885,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>75</v>
       </c>
@@ -4808,15 +4913,17 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
@@ -4865,37 +4972,37 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4908,22 +5015,26 @@
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>75</v>
       </c>
@@ -4959,19 +5070,19 @@
         <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4989,19 +5100,17 @@
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5019,20 +5128,18 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5057,13 +5164,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5081,19 +5188,19 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>75</v>
@@ -5104,10 +5211,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5127,20 +5234,18 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
@@ -5189,7 +5294,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5198,7 +5303,7 @@
         <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>96</v>
@@ -5207,15 +5312,15 @@
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5235,20 +5340,18 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -5273,13 +5376,13 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5297,7 +5400,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5315,15 +5418,15 @@
         <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5346,17 +5449,15 @@
         <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5405,7 +5506,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5423,15 +5524,15 @@
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>243</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5451,20 +5552,18 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
@@ -5513,7 +5612,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5525,21 +5624,21 @@
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>127</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5547,10 +5646,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5559,16 +5658,16 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5607,31 +5706,31 @@
         <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -5642,12 +5741,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>75</v>
       </c>
@@ -5662,22 +5763,22 @@
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5703,13 +5804,13 @@
         <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>279</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>75</v>
@@ -5727,19 +5828,19 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
@@ -5750,10 +5851,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5764,7 +5865,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5773,19 +5874,23 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -5833,16 +5938,16 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>96</v>
@@ -5851,15 +5956,15 @@
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>75</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5876,26 +5981,30 @@
         <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="R41" t="s" s="2">
         <v>75</v>
       </c>
@@ -5915,13 +6024,13 @@
         <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>75</v>
@@ -5939,7 +6048,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>214</v>
+        <v>288</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5951,21 +6060,21 @@
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>215</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5976,7 +6085,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
@@ -5985,19 +6094,21 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>130</v>
+        <v>291</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6033,47 +6144,47 @@
         <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC42" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>75</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6082,7 +6193,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6091,21 +6202,21 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>289</v>
+        <v>98</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -6153,68 +6264,68 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>142</v>
+        <v>301</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>75</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6263,33 +6374,33 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>127</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6300,7 +6411,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -6309,16 +6420,16 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6369,13 +6480,13 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
@@ -6392,10 +6503,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6406,7 +6517,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6418,13 +6529,13 @@
         <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6475,33 +6586,33 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6512,7 +6623,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -6524,13 +6635,13 @@
         <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6569,56 +6680,56 @@
         <v>75</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="D48" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6630,16 +6741,16 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>316</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>174</v>
+        <v>319</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6689,7 +6800,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6698,7 +6809,7 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>135</v>
@@ -6707,19 +6818,19 @@
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6741,16 +6852,16 @@
         <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>295</v>
+        <v>231</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>75</v>
@@ -6799,7 +6910,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -6822,10 +6933,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6836,7 +6947,7 @@
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
@@ -6845,16 +6956,16 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6881,13 +6992,13 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -6905,13 +7016,13 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
@@ -6928,10 +7039,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6942,7 +7053,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
@@ -6954,13 +7065,13 @@
         <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7011,13 +7122,13 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
@@ -7034,10 +7145,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7060,13 +7171,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>318</v>
+        <v>215</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>319</v>
+        <v>216</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7117,7 +7228,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7129,32 +7240,32 @@
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -7163,18 +7274,20 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>75</v>
@@ -7223,37 +7336,37 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7266,22 +7379,26 @@
         <v>75</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>326</v>
+        <v>230</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>75</v>
       </c>
@@ -7329,7 +7446,7 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>325</v>
+        <v>232</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7341,21 +7458,21 @@
         <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7378,13 +7495,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7435,7 +7552,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7447,32 +7564,32 @@
         <v>75</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -7484,17 +7601,15 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>75</v>
@@ -7549,31 +7664,31 @@
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7586,26 +7701,22 @@
         <v>75</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
       </c>
@@ -7641,19 +7752,19 @@
         <v>75</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7671,17 +7782,19 @@
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>75</v>
       </c>
@@ -7690,7 +7803,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
@@ -7702,15 +7815,17 @@
         <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
@@ -7759,7 +7874,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -7771,7 +7886,7 @@
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
@@ -7782,10 +7897,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7805,19 +7920,23 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>75</v>
       </c>
@@ -7865,7 +7984,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -7883,15 +8002,15 @@
         <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>75</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7911,19 +8030,23 @@
         <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>212</v>
+        <v>351</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
       </c>
@@ -7971,7 +8094,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>214</v>
+        <v>355</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -7983,25 +8106,25 @@
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>215</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8020,17 +8143,15 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8079,7 +8200,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>218</v>
+        <v>357</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8091,57 +8212,53 @@
         <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
       </c>
@@ -8189,33 +8306,33 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>127</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8226,7 +8343,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -8238,13 +8355,13 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>275</v>
+        <v>129</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>341</v>
+        <v>130</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>342</v>
+        <v>131</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8283,31 +8400,29 @@
         <v>75</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>75</v>
@@ -8318,12 +8433,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>75</v>
       </c>
@@ -8332,7 +8449,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>75</v>
@@ -8344,15 +8461,17 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>282</v>
+        <v>363</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -8401,7 +8520,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>343</v>
+        <v>221</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -8410,10 +8529,10 @@
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
@@ -8424,42 +8543,46 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
       </c>
@@ -8507,44 +8630,44 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>215</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
@@ -8556,17 +8679,15 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -8615,69 +8736,65 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>218</v>
+        <v>368</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>215</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>294</v>
+        <v>372</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>75</v>
       </c>
@@ -8725,33 +8842,33 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>296</v>
+        <v>371</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8759,7 +8876,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>84</v>
@@ -8774,13 +8891,13 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>350</v>
+        <v>216</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>351</v>
+        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8831,10 +8948,10 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>349</v>
+        <v>218</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>84</v>
@@ -8843,21 +8960,21 @@
         <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8868,7 +8985,7 @@
         <v>84</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>75</v>
@@ -8880,13 +8997,13 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>275</v>
+        <v>129</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>353</v>
+        <v>130</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8925,31 +9042,31 @@
         <v>75</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>352</v>
+        <v>221</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>75</v>
@@ -8960,21 +9077,23 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>75</v>
@@ -8986,15 +9105,17 @@
         <v>75</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>282</v>
+        <v>377</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>75</v>
@@ -9043,7 +9164,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>355</v>
+        <v>221</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9055,7 +9176,7 @@
         <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>75</v>
@@ -9066,10 +9187,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9080,7 +9201,7 @@
         <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>75</v>
@@ -9089,19 +9210,23 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>211</v>
+        <v>343</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>75</v>
       </c>
@@ -9149,44 +9274,44 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>214</v>
+        <v>348</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>215</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
@@ -9195,21 +9320,23 @@
         <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>75</v>
       </c>
@@ -9257,37 +9384,37 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>218</v>
+        <v>355</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>215</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9300,26 +9427,22 @@
         <v>75</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>294</v>
+        <v>383</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>75</v>
       </c>
@@ -9367,7 +9490,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>296</v>
+        <v>382</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -9379,21 +9502,21 @@
         <v>75</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9416,13 +9539,13 @@
         <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9449,13 +9572,13 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>75</v>
@@ -9473,7 +9596,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>361</v>
+        <v>218</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -9485,21 +9608,21 @@
         <v>75</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9510,7 +9633,7 @@
         <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>75</v>
@@ -9522,13 +9645,13 @@
         <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>315</v>
+        <v>130</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>363</v>
+        <v>131</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9567,31 +9690,29 @@
         <v>75</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>75</v>
@@ -9602,12 +9723,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>75</v>
       </c>
@@ -9628,15 +9751,17 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>319</v>
+        <v>389</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>75</v>
@@ -9685,19 +9810,19 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>364</v>
+        <v>221</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>75</v>
@@ -9708,42 +9833,46 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>322</v>
+        <v>129</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>367</v>
+        <v>230</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>75</v>
       </c>
@@ -9791,33 +9920,33 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>366</v>
+        <v>232</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9828,7 +9957,7 @@
         <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>75</v>
@@ -9840,13 +9969,13 @@
         <v>75</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>370</v>
+        <v>204</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>371</v>
+        <v>248</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9873,13 +10002,13 @@
         <v>75</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>75</v>
@@ -9897,13 +10026,13 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>75</v>
@@ -9915,6 +10044,1298 @@
         <v>75</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="P86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q86" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>75</v>
       </c>
     </row>
